--- a/venv/Visualization/Country-Currency.xlsx
+++ b/venv/Visualization/Country-Currency.xlsx
@@ -464,7 +464,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -483,11 +483,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.29090909090909089</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="C2" s="2">
         <f xml:space="preserve"> 100*B2</f>
-        <v>29.09090909090909</v>
+        <v>26.666666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -495,11 +495,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.4242424242424242</v>
+        <v>0.43939393939393928</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C21" si="0" xml:space="preserve"> 100*B3</f>
-        <v>42.424242424242422</v>
+        <v>43.939393939393931</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -507,11 +507,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.41515151515151522</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>41.515151515151523</v>
+        <v>50.909090909090907</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -519,11 +519,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.54545454545454541</v>
+        <v>0.46060606060606057</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>54.54545454545454</v>
+        <v>46.060606060606055</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -531,11 +531,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.53636363636363638</v>
+        <v>0.52727272727272712</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>53.63636363636364</v>
+        <v>52.727272727272712</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -555,11 +555,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.57878787878787874</v>
+        <v>0.61212121212121218</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>57.878787878787875</v>
+        <v>61.212121212121218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -567,11 +567,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.60303030303030314</v>
+        <v>0.57272727272727275</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>60.303030303030312</v>
+        <v>57.272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -579,11 +579,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.49999999999999989</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>49.999999999999986</v>
+        <v>60.000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,11 +591,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.56363636363636371</v>
+        <v>0.55151515151515151</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>56.363636363636374</v>
+        <v>55.151515151515149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -603,11 +603,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.56363636363636371</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>56.363636363636374</v>
+        <v>53.333333333333343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -615,11 +615,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.62424242424242427</v>
+        <v>0.59090909090909105</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>62.424242424242429</v>
+        <v>59.090909090909108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,11 +627,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.6000000000000002</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>60.000000000000021</v>
+        <v>60.606060606060609</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -639,11 +639,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0.61212121212121218</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>61.212121212121218</v>
+        <v>56.969696969696969</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -651,11 +651,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.5757575757575758</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>57.575757575757578</v>
+        <v>58.18181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -663,11 +663,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.58484848484848495</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>58.484848484848499</v>
+        <v>59.393939393939398</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -675,11 +675,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.61212121212121218</v>
+        <v>0.60303030303030314</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>61.212121212121218</v>
+        <v>60.303030303030312</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -687,11 +687,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.58787878787878789</v>
+        <v>0.62121212121212133</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>58.787878787878789</v>
+        <v>62.121212121212132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -699,11 +699,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.5818181818181819</v>
+        <v>0.62121212121212133</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>58.181818181818187</v>
+        <v>62.121212121212132</v>
       </c>
     </row>
     <row r="21" spans="1:3">
